--- a/biology/Botanique/Calothamnus_quadrifidus/Calothamnus_quadrifidus.xlsx
+++ b/biology/Botanique/Calothamnus_quadrifidus/Calothamnus_quadrifidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calothamnus quadrifidus est un représentant de la famille des Myrtaceae endémique du sud-ouest de l'Australie-Occidentale. Il a la particularité de disposer les étamines de son inflorescence sur un seul côté de la tige.
 C'est généralement un buisson d'environ 2,5 mètres de hauteur et de diamètre qui fleurit du milieu de l'hiver au début de l'été. Les fleurs sont rouges, blanches ou jaunes et la couleur rouge est la plus fréquemment observée en culture.
